--- a/Juan Carlos López León/CU_clientes.xlsx
+++ b/Juan Carlos López León/CU_clientes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Carlos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A811F4D-DFE1-46A2-B194-2A42FF5DAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84297F93-27DF-4332-9B1F-5F8668FEAE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CU_10" sheetId="1" r:id="rId1"/>
-    <sheet name="CU_11" sheetId="2" r:id="rId2"/>
-    <sheet name="CU_12" sheetId="4" r:id="rId3"/>
+    <sheet name="CU_9" sheetId="1" r:id="rId1"/>
+    <sheet name="CU_10" sheetId="2" r:id="rId2"/>
+    <sheet name="CU_11" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -150,9 +150,6 @@
     <t>CU_11</t>
   </si>
   <si>
-    <t>CU_12</t>
-  </si>
-  <si>
     <t>Si el usuario tienen que estar registrado en el sistema.</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>6a. Si el usuario hace clic en el botón "Cancelar", la ventana de confirmación se cierra y no se realiza ninguna acción adicional.</t>
+  </si>
+  <si>
+    <t>CU_9</t>
   </si>
 </sst>
 </file>
@@ -725,6 +725,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -734,13 +779,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,84 +830,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,7 +851,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1864,86 +1864,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="63" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView zoomScale="63" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22" thickTop="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:16" ht="22.2" thickTop="1" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-    </row>
-    <row r="5" spans="1:16" ht="31" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="1:16" ht="31.05" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1953,127 +1953,127 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="30" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.2" thickTop="1" thickBot="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="189" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A12" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" ht="189" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="69" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:16" ht="98.55" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:16" ht="98.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="37" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:12" ht="29.15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:12" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="37" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickTop="1">
       <c r="A20" s="12"/>
@@ -2084,7 +2084,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="14.5" customHeight="1">
+    <row r="21" spans="1:12" ht="14.55" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2102,7 +2102,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="27.65" customHeight="1">
+    <row r="23" spans="1:12" ht="27.6" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -2256,31 +2256,37 @@
       <c r="G39" s="17"/>
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1"/>
-    <row r="42" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
+    <row r="42" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A42" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:12" ht="15" thickTop="1"/>
     <row r="47" spans="1:12" ht="15" thickBot="1"/>
-    <row r="48" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="E48" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
+    <row r="48" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
+      <c r="E48" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
     </row>
     <row r="49" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="G1:P1"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="E19:L19"/>
@@ -2297,12 +2303,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2315,84 +2315,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22" thickTop="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:17" ht="22.2" thickTop="1" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="H1" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="H1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:17" ht="30.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-    </row>
-    <row r="5" spans="1:17" ht="41.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="1:17" ht="41.55" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B5" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2405,111 +2405,111 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="30" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.2" thickTop="1" thickBot="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="37" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="1:17" ht="191.15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="69" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" ht="191.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A12" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:17" ht="102" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:17" ht="102" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="44" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="37" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:14" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="47"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="48" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.2" thickTop="1" thickBot="1">
+      <c r="A18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-    </row>
-    <row r="19" spans="1:14" ht="22" thickTop="1" thickBot="1">
-      <c r="A19" s="37" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:14" ht="22.2" thickTop="1" thickBot="1">
+      <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -2523,15 +2523,15 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickTop="1"/>
     <row r="39" spans="1:14" ht="15" thickBot="1"/>
-    <row r="40" spans="1:14" ht="22" thickTop="1" thickBot="1">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:14" ht="22.2" thickTop="1" thickBot="1">
+      <c r="A40" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="63" t="s">
         <v>37</v>
-      </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="63" t="s">
-        <v>38</v>
       </c>
       <c r="F40" s="64"/>
       <c r="G40" s="64"/>
@@ -2546,6 +2546,12 @@
     <row r="41" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="E40:N40"/>
     <mergeCell ref="H1:Q1"/>
@@ -2562,12 +2568,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2579,84 +2579,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22" thickTop="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:17" ht="22.2" thickTop="1" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="H1" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="H1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:17" ht="30.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-    </row>
-    <row r="5" spans="1:17" ht="41.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B4" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="1:17" ht="41.55" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B5" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2669,111 +2669,111 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="30" t="s">
+      <c r="B7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.2" thickTop="1" thickBot="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="37" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="1:17" ht="191.15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="32" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" ht="191.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A12" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:17" ht="102" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:17" ht="102" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="44" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="37" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:14" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="47"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A19" s="37" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.2" thickTop="1" thickBot="1">
+      <c r="A18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.2" thickTop="1" thickBot="1">
+      <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="67"/>
@@ -2787,15 +2787,15 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickTop="1"/>
     <row r="40" spans="1:14" ht="15" thickBot="1"/>
-    <row r="41" spans="1:14" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A41" s="37" t="s">
+    <row r="41" spans="1:14" ht="19.2" thickTop="1" thickBot="1">
+      <c r="A41" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="66" t="s">
         <v>37</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="66" t="s">
-        <v>38</v>
       </c>
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
@@ -2810,6 +2810,12 @@
     <row r="42" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="E41:N41"/>
@@ -2826,12 +2832,6 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
